--- a/tsakitsaky/to-do list.xlsx
+++ b/tsakitsaky/to-do list.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="53">
   <si>
     <t xml:space="preserve">Catégorie</t>
   </si>
@@ -137,12 +137,6 @@
   </si>
   <si>
     <t xml:space="preserve">Fonction pour récupérer le cout de revient/billet (repository + services)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Class model VventeRevientBillet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">View v_vente_revient_billet</t>
   </si>
   <si>
     <t xml:space="preserve">Pack</t>
@@ -195,7 +189,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.00%"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -222,7 +216,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="0"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -235,6 +228,12 @@
       <b val="true"/>
       <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -281,7 +280,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
+  <cellStyleXfs count="22">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -305,10 +304,19 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -316,24 +324,24 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Comma" xfId="15" builtinId="3"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
@@ -341,49 +349,13 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
     <cellStyle name="Termine" xfId="20"/>
+    <cellStyle name="bientot" xfId="21"/>
   </cellStyles>
-  <dxfs count="7">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF00A933"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF729FCF"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFFFF"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <font>
+        <name val="Arial"/>
+        <family val="2"/>
         <b val="1"/>
         <color rgb="FFFFFFFF"/>
       </font>
@@ -392,9 +364,12 @@
           <bgColor rgb="FFCC0000"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </dxf>
     <dxf>
+      <font>
+        <name val="Arial"/>
+        <family val="2"/>
+      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FF5EB91E"/>
@@ -407,6 +382,31 @@
         <bottom/>
         <diagonal/>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Arial"/>
+        <family val="2"/>
+        <b val="1"/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC0000"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Arial"/>
+        <family val="2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF5EB91E"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <colors>
@@ -583,68 +583,66 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AA234"/>
+  <dimension ref="A1:AA232"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F25" activeCellId="0" sqref="F25"/>
+      <selection pane="topLeft" activeCell="E26" activeCellId="0" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="82.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="5.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="13.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="12.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="13.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="12" style="0" width="12.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="16.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="82.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="14.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="5.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="13.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="12.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="13.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="12" style="1" width="12.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-      <c r="AA1" s="2"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+      <c r="AA1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
@@ -878,7 +876,7 @@
       </c>
       <c r="L9" s="3" t="n">
         <f aca="false">SUM(F:F)</f>
-        <v>290</v>
+        <v>340</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -913,7 +911,7 @@
       </c>
       <c r="L10" s="3" t="n">
         <f aca="false">SUM(G:G)</f>
-        <v>140</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -932,21 +930,23 @@
       <c r="E11" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="F11" s="3"/>
+      <c r="F11" s="3" t="n">
+        <v>5</v>
+      </c>
       <c r="G11" s="3" t="n">
         <f aca="false">E11-F11</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H11" s="4" t="n">
         <f aca="false">IF((F11+G11)=0,0,F11/(F11+G11))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="L11" s="4" t="n">
+      <c r="L11" s="6" t="n">
         <f aca="false">L9/(L9+L10)</f>
-        <v>0.674418604651163</v>
+        <v>0.788863109048724</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -965,14 +965,15 @@
       <c r="E12" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="F12" s="3"/>
+      <c r="F12" s="3" t="n">
+        <v>3</v>
+      </c>
       <c r="G12" s="3" t="n">
-        <f aca="false">E12-F12</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H12" s="4" t="n">
         <f aca="false">IF((F12+G12)=0,0,F12/(F12+G12))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -991,14 +992,16 @@
       <c r="E13" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="F13" s="3"/>
+      <c r="F13" s="3" t="n">
+        <v>5</v>
+      </c>
       <c r="G13" s="3" t="n">
         <f aca="false">E13-F13</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H13" s="4" t="n">
         <f aca="false">IF((F13+G13)=0,0,F13/(F13+G13))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1017,14 +1020,16 @@
       <c r="E14" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="F14" s="3"/>
+      <c r="F14" s="3" t="n">
+        <v>5</v>
+      </c>
       <c r="G14" s="3" t="n">
         <f aca="false">E14-F14</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H14" s="4" t="n">
         <f aca="false">IF((F14+G14)=0,0,F14/(F14+G14))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1043,14 +1048,16 @@
       <c r="E15" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="F15" s="3"/>
+      <c r="F15" s="3" t="n">
+        <v>2</v>
+      </c>
       <c r="G15" s="3" t="n">
         <f aca="false">E15-F15</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H15" s="4" t="n">
         <f aca="false">IF((F15+G15)=0,0,F15/(F15+G15))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1069,14 +1076,16 @@
       <c r="E16" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="F16" s="3"/>
+      <c r="F16" s="3" t="n">
+        <v>5</v>
+      </c>
       <c r="G16" s="3" t="n">
         <f aca="false">E16-F16</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H16" s="4" t="n">
         <f aca="false">IF((F16+G16)=0,0,F16/(F16+G16))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1095,14 +1104,16 @@
       <c r="E17" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="F17" s="3"/>
+      <c r="F17" s="3" t="n">
+        <v>3</v>
+      </c>
       <c r="G17" s="3" t="n">
         <f aca="false">E17-F17</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H17" s="4" t="n">
         <f aca="false">IF((F17+G17)=0,0,F17/(F17+G17))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1121,14 +1132,16 @@
       <c r="E18" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="F18" s="3"/>
+      <c r="F18" s="3" t="n">
+        <v>5</v>
+      </c>
       <c r="G18" s="3" t="n">
         <f aca="false">E18-F18</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H18" s="4" t="n">
         <f aca="false">IF((F18+G18)=0,0,F18/(F18+G18))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1147,14 +1160,16 @@
       <c r="E19" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="F19" s="3"/>
+      <c r="F19" s="3" t="n">
+        <v>2</v>
+      </c>
       <c r="G19" s="3" t="n">
         <f aca="false">E19-F19</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H19" s="4" t="n">
         <f aca="false">IF((F19+G19)=0,0,F19/(F19+G19))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1173,14 +1188,16 @@
       <c r="E20" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="F20" s="3"/>
+      <c r="F20" s="3" t="n">
+        <v>5</v>
+      </c>
       <c r="G20" s="3" t="n">
         <f aca="false">E20-F20</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H20" s="4" t="n">
         <f aca="false">IF((F20+G20)=0,0,F20/(F20+G20))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1199,14 +1216,16 @@
       <c r="E21" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="F21" s="3"/>
+      <c r="F21" s="3" t="n">
+        <v>3</v>
+      </c>
       <c r="G21" s="3" t="n">
         <f aca="false">E21-F21</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H21" s="4" t="n">
         <f aca="false">IF((F21+G21)=0,0,F21/(F21+G21))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1225,14 +1244,16 @@
       <c r="E22" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="F22" s="3"/>
+      <c r="F22" s="3" t="n">
+        <v>2</v>
+      </c>
       <c r="G22" s="3" t="n">
         <f aca="false">E22-F22</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H22" s="4" t="n">
         <f aca="false">IF((F22+G22)=0,0,F22/(F22+G22))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1251,36 +1272,38 @@
       <c r="E23" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="F23" s="3"/>
+      <c r="F23" s="3" t="n">
+        <v>5</v>
+      </c>
       <c r="G23" s="3" t="n">
         <f aca="false">E23-F23</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H23" s="4" t="n">
         <f aca="false">IF((F23+G23)=0,0,F23/(F23+G23))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="3" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D24" s="3" t="n">
         <v>1</v>
       </c>
       <c r="E24" s="3" t="n">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="F24" s="3"/>
       <c r="G24" s="3" t="n">
         <f aca="false">E24-F24</f>
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="H24" s="4" t="n">
         <f aca="false">IF((F24+G24)=0,0,F24/(F24+G24))</f>
@@ -1289,13 +1312,13 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="3" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="D25" s="3" t="n">
         <v>1</v>
@@ -1315,24 +1338,24 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D26" s="3" t="n">
         <v>1</v>
       </c>
       <c r="E26" s="3" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F26" s="3"/>
       <c r="G26" s="3" t="n">
         <f aca="false">E26-F26</f>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H26" s="4" t="n">
         <f aca="false">IF((F26+G26)=0,0,F26/(F26+G26))</f>
@@ -1341,13 +1364,13 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D27" s="3" t="n">
         <v>1</v>
@@ -1367,10 +1390,10 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>20</v>
@@ -1379,12 +1402,12 @@
         <v>1</v>
       </c>
       <c r="E28" s="3" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F28" s="3"/>
       <c r="G28" s="3" t="n">
         <f aca="false">E28-F28</f>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H28" s="4" t="n">
         <f aca="false">IF((F28+G28)=0,0,F28/(F28+G28))</f>
@@ -1393,13 +1416,13 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B29" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B29" s="3" t="s">
-        <v>25</v>
-      </c>
       <c r="C29" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D29" s="3" t="n">
         <v>1</v>
@@ -1419,7 +1442,7 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>45</v>
@@ -1445,7 +1468,7 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>46</v>
@@ -1457,12 +1480,12 @@
         <v>1</v>
       </c>
       <c r="E31" s="3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F31" s="3"/>
       <c r="G31" s="3" t="n">
         <f aca="false">E31-F31</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H31" s="4" t="n">
         <f aca="false">IF((F31+G31)=0,0,F31/(F31+G31))</f>
@@ -1471,24 +1494,24 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>47</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D32" s="3" t="n">
         <v>1</v>
       </c>
       <c r="E32" s="3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F32" s="3"/>
       <c r="G32" s="3" t="n">
         <f aca="false">E32-F32</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H32" s="4" t="n">
         <f aca="false">IF((F32+G32)=0,0,F32/(F32+G32))</f>
@@ -1497,7 +1520,7 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>48</v>
@@ -1523,24 +1546,24 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>49</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D34" s="3" t="n">
         <v>1</v>
       </c>
       <c r="E34" s="3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F34" s="3"/>
       <c r="G34" s="3" t="n">
         <f aca="false">E34-F34</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H34" s="4" t="n">
         <f aca="false">IF((F34+G34)=0,0,F34/(F34+G34))</f>
@@ -1549,24 +1572,24 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>50</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D35" s="3" t="n">
         <v>1</v>
       </c>
       <c r="E35" s="3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F35" s="3"/>
       <c r="G35" s="3" t="n">
         <f aca="false">E35-F35</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H35" s="4" t="n">
         <f aca="false">IF((F35+G35)=0,0,F35/(F35+G35))</f>
@@ -1575,7 +1598,7 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>51</v>
@@ -1601,7 +1624,7 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>52</v>
@@ -1626,25 +1649,15 @@
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D38" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E38" s="3" t="n">
-        <v>5</v>
-      </c>
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
       <c r="F38" s="3"/>
       <c r="G38" s="3" t="n">
         <f aca="false">E38-F38</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H38" s="4" t="n">
         <f aca="false">IF((F38+G38)=0,0,F38/(F38+G38))</f>
@@ -1652,25 +1665,15 @@
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D39" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E39" s="3" t="n">
-        <v>5</v>
-      </c>
+      <c r="A39" s="3"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
       <c r="F39" s="3"/>
       <c r="G39" s="3" t="n">
         <f aca="false">E39-F39</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H39" s="4" t="n">
         <f aca="false">IF((F39+G39)=0,0,F39/(F39+G39))</f>
@@ -4765,53 +4768,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A233" s="3"/>
-      <c r="B233" s="3"/>
-      <c r="C233" s="3"/>
-      <c r="D233" s="3"/>
-      <c r="E233" s="3"/>
-      <c r="F233" s="3"/>
-      <c r="G233" s="3" t="n">
-        <f aca="false">E233-F233</f>
-        <v>0</v>
-      </c>
-      <c r="H233" s="4" t="n">
-        <f aca="false">IF((F233+G233)=0,0,F233/(F233+G233))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A234" s="3"/>
-      <c r="B234" s="3"/>
-      <c r="C234" s="3"/>
-      <c r="D234" s="3"/>
-      <c r="E234" s="3"/>
-      <c r="F234" s="3"/>
-      <c r="G234" s="3" t="n">
-        <f aca="false">E234-F234</f>
-        <v>0</v>
-      </c>
-      <c r="H234" s="4" t="n">
-        <f aca="false">IF((F234+G234)=0,0,F234/(F234+G234))</f>
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="H2:H234 K11">
-    <cfRule type="cellIs" priority="2" operator="between" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
+  <conditionalFormatting sqref="H2:H232 K11">
+    <cfRule type="cellIs" priority="2" operator="between" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>0</formula>
       <formula>0.5</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="3" operator="between" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
+    <cfRule type="cellIs" priority="3" operator="between" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>0.5</formula>
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K11">
-    <cfRule type="cellIs" priority="4" operator="between" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
+    <cfRule type="cellIs" priority="4" operator="between" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>0</formula>
       <formula>0.4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L11">
+    <cfRule type="cellIs" priority="5" operator="between" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>0</formula>
+      <formula>0.5</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="6" operator="between" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>0.6</formula>
+      <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
